--- a/Data-analysis/contact angles.xlsx
+++ b/Data-analysis/contact angles.xlsx
@@ -1,36 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\groups\bloodfilter\CliftonAnderson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdhig\Documents\MS-Thesis-Pitt\Data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81826F11-A53F-4957-9E60-F02FEE4A26CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16455" windowHeight="6105"/>
+    <workbookView xWindow="1884" yWindow="720" windowWidth="16548" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$196</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Clifton Anderson</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H50" authorId="0" shapeId="0">
+    <comment ref="H50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F126" authorId="0" shapeId="0">
+    <comment ref="F126" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Clifton Anderson:</t>
         </r>
@@ -121,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 missing some matte data from this day
@@ -134,12 +144,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Clifton Anderson</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H50" authorId="0" shapeId="0">
+    <comment ref="H50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="197">
   <si>
     <t>Drop</t>
   </si>
@@ -790,8 +800,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,19 +821,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -890,7 +887,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6A8916F-B600-41B2-96C8-C9A99DEF6D61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A8916F-B600-41B2-96C8-C9A99DEF6D61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -934,7 +931,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB97CF66-022D-401D-925F-22B0A61F7546}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB97CF66-022D-401D-925F-22B0A61F7546}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,14 +960,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>245404</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>350179</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -978,7 +975,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9724C010-4FCB-4FB1-BF51-A43E90F1BD98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9724C010-4FCB-4FB1-BF51-A43E90F1BD98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -994,7 +991,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10494304" y="754380"/>
+          <a:off x="12799354" y="211455"/>
           <a:ext cx="4155146" cy="3208020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1303,34 +1300,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="2" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -1380,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1430,7 +1427,7 @@
         <v>66.974999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1480,7 +1477,7 @@
         <v>60.900000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>65.05</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1580,7 +1577,7 @@
         <v>60.75</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1630,7 +1627,7 @@
         <v>59.97</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1680,7 +1677,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1730,7 +1727,7 @@
         <v>63.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1780,7 +1777,7 @@
         <v>59.349999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1830,7 +1827,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1880,7 +1877,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1980,7 +1977,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>66.949999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2080,7 +2077,7 @@
         <v>66.95</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2130,7 +2127,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2180,7 +2177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2230,7 +2227,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2280,7 +2277,7 @@
         <v>65.849999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2330,7 +2327,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2380,7 +2377,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2430,7 +2427,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2480,7 +2477,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2530,7 +2527,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2580,7 +2577,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2630,7 +2627,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2680,7 +2677,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2730,7 +2727,7 @@
         <v>47.25</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2780,7 +2777,7 @@
         <v>51.099999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2830,7 +2827,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2880,7 +2877,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2930,7 +2927,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2980,7 +2977,7 @@
         <v>30.799999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3030,7 +3027,7 @@
         <v>35.849999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3080,7 +3077,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3130,7 +3127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3177,7 +3174,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3224,7 +3221,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3274,7 +3271,7 @@
         <v>29.35</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3321,7 +3318,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3371,7 +3368,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3421,7 +3418,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3471,7 +3468,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3521,7 +3518,7 @@
         <v>69.55</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3571,7 +3568,7 @@
         <v>69.650000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3621,7 +3618,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3671,7 +3668,7 @@
         <v>66.449999999999989</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3721,7 +3718,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -3771,7 +3768,7 @@
         <v>74.45</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3821,7 +3818,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -3871,7 +3868,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3921,7 +3918,7 @@
         <v>72.650000000000006</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -3971,7 +3968,7 @@
         <v>77.05</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -4021,7 +4018,7 @@
         <v>72.150000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -4071,7 +4068,7 @@
         <v>83.55</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -4121,7 +4118,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4171,7 +4168,7 @@
         <v>77.949999999999989</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -4221,7 +4218,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -4271,7 +4268,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -4321,7 +4318,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -4371,7 +4368,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -4421,7 +4418,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -4471,7 +4468,7 @@
         <v>67.949999999999989</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -4521,7 +4518,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
@@ -4571,7 +4568,7 @@
         <v>68.150000000000006</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -4621,7 +4618,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -4671,7 +4668,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -4721,7 +4718,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -4821,7 +4818,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -4871,7 +4868,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
@@ -4921,7 +4918,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
@@ -4971,7 +4968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>4</v>
       </c>
@@ -5021,7 +5018,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -5071,7 +5068,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -5118,7 +5115,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -5168,7 +5165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -5218,7 +5215,7 @@
         <v>25.299999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -5268,7 +5265,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -5318,7 +5315,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -5368,7 +5365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -5418,7 +5415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -5468,7 +5465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -5518,7 +5515,7 @@
         <v>71.95</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -5568,7 +5565,7 @@
         <v>65.699999999999989</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3</v>
       </c>
@@ -5618,7 +5615,7 @@
         <v>66.05</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -5668,7 +5665,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -5718,7 +5715,7 @@
         <v>74.150000000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -5768,7 +5765,7 @@
         <v>71.95</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3</v>
       </c>
@@ -5818,7 +5815,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -5868,7 +5865,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>122</v>
       </c>
@@ -5912,7 +5909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>122</v>
       </c>
@@ -5956,7 +5953,7 @@
         <v>56.75</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>122</v>
       </c>
@@ -6000,7 +5997,7 @@
         <v>56.15</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>122</v>
       </c>
@@ -6044,7 +6041,7 @@
         <v>104.85</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>122</v>
       </c>
@@ -6088,7 +6085,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>122</v>
       </c>
@@ -6132,7 +6129,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>122</v>
       </c>
@@ -6176,7 +6173,7 @@
         <v>53.65</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>122</v>
       </c>
@@ -6220,7 +6217,7 @@
         <v>42.95</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>122</v>
       </c>
@@ -6264,7 +6261,7 @@
         <v>33.450000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>122</v>
       </c>
@@ -6308,7 +6305,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -6358,7 +6355,7 @@
         <v>73.949999999999989</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -6408,7 +6405,7 @@
         <v>70.05</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -6458,7 +6455,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -6508,7 +6505,7 @@
         <v>61.85</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -6558,7 +6555,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -6608,7 +6605,7 @@
         <v>47.05</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -6658,7 +6655,7 @@
         <v>41.95</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -6708,7 +6705,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -6758,7 +6755,7 @@
         <v>39.849999999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>4</v>
       </c>
@@ -6808,7 +6805,7 @@
         <v>71.75</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>67</v>
       </c>
@@ -6852,7 +6849,7 @@
         <v>122.95</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>67</v>
       </c>
@@ -6896,7 +6893,7 @@
         <v>118.25</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>67</v>
       </c>
@@ -6940,7 +6937,7 @@
         <v>108.1</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>67</v>
       </c>
@@ -6984,7 +6981,7 @@
         <v>98.050000000000011</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>67</v>
       </c>
@@ -7028,7 +7025,7 @@
         <v>81.349999999999994</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>67</v>
       </c>
@@ -7072,7 +7069,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>67</v>
       </c>
@@ -7116,7 +7113,7 @@
         <v>47.099999999999994</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>67</v>
       </c>
@@ -7160,7 +7157,7 @@
         <v>76.849999999999994</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>67</v>
       </c>
@@ -7204,7 +7201,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>67</v>
       </c>
@@ -7248,7 +7245,7 @@
         <v>65.95</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>67</v>
       </c>
@@ -7292,7 +7289,7 @@
         <v>67.55</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>67</v>
       </c>
@@ -7336,7 +7333,7 @@
         <v>65.800000000000011</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>67</v>
       </c>
@@ -7380,7 +7377,7 @@
         <v>65.800000000000011</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>110</v>
       </c>
@@ -7424,7 +7421,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>110</v>
       </c>
@@ -7466,7 +7463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>67</v>
       </c>
@@ -7510,7 +7507,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>67</v>
       </c>
@@ -7552,7 +7549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>67</v>
       </c>
@@ -7594,7 +7591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>67</v>
       </c>
@@ -7638,7 +7635,7 @@
         <v>18.350000000000001</v>
       </c>
     </row>
-    <row r="131" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>67</v>
       </c>
@@ -7682,7 +7679,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="132" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>67</v>
       </c>
@@ -7726,7 +7723,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="133" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>67</v>
       </c>
@@ -7767,7 +7764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>67</v>
       </c>
@@ -7808,7 +7805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>67</v>
       </c>
@@ -7849,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>122</v>
       </c>
@@ -7893,7 +7890,7 @@
         <v>81.55</v>
       </c>
     </row>
-    <row r="137" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>122</v>
       </c>
@@ -7937,7 +7934,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="138" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>122</v>
       </c>
@@ -7981,7 +7978,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="139" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>122</v>
       </c>
@@ -8025,7 +8022,7 @@
         <v>81.550000000000011</v>
       </c>
     </row>
-    <row r="140" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>122</v>
       </c>
@@ -8069,7 +8066,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="141" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>122</v>
       </c>
@@ -8113,7 +8110,7 @@
         <v>83.95</v>
       </c>
     </row>
-    <row r="142" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>122</v>
       </c>
@@ -8157,7 +8154,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="143" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>122</v>
       </c>
@@ -8201,7 +8198,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="144" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>122</v>
       </c>
@@ -8246,7 +8243,7 @@
       </c>
       <c r="S144" s="3"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>122</v>
       </c>
@@ -8290,7 +8287,7 @@
         <v>105.55000000000001</v>
       </c>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>122</v>
       </c>
@@ -8334,7 +8331,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>122</v>
       </c>
@@ -8378,7 +8375,7 @@
         <v>103.05000000000001</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>122</v>
       </c>
@@ -8422,7 +8419,7 @@
         <v>95.65</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>122</v>
       </c>
@@ -8466,7 +8463,7 @@
         <v>85.15</v>
       </c>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>122</v>
       </c>
@@ -8510,7 +8507,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>122</v>
       </c>
@@ -8554,7 +8551,7 @@
         <v>100.85</v>
       </c>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>122</v>
       </c>
@@ -8598,7 +8595,7 @@
         <v>88.35</v>
       </c>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>122</v>
       </c>
@@ -8642,7 +8639,7 @@
         <v>95.550000000000011</v>
       </c>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>122</v>
       </c>
@@ -8686,7 +8683,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>122</v>
       </c>
@@ -8730,7 +8727,7 @@
         <v>83.800000000000011</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>122</v>
       </c>
@@ -8774,7 +8771,7 @@
         <v>68.25</v>
       </c>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>122</v>
       </c>
@@ -8818,7 +8815,7 @@
         <v>89.449999999999989</v>
       </c>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>122</v>
       </c>
@@ -8862,7 +8859,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>122</v>
       </c>
@@ -8906,7 +8903,7 @@
         <v>70.199999999999989</v>
       </c>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>122</v>
       </c>
@@ -8950,7 +8947,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>122</v>
       </c>
@@ -8994,7 +8991,7 @@
         <v>88.35</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>122</v>
       </c>
@@ -9038,7 +9035,7 @@
         <v>78.25</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>122</v>
       </c>
@@ -9082,7 +9079,7 @@
         <v>82.199999999999989</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>122</v>
       </c>
@@ -9126,7 +9123,7 @@
         <v>87.75</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>122</v>
       </c>
@@ -9170,7 +9167,7 @@
         <v>80.349999999999994</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>122</v>
       </c>
@@ -9214,7 +9211,7 @@
         <v>91.699999999999989</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>122</v>
       </c>
@@ -9258,7 +9255,7 @@
         <v>81.45</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>122</v>
       </c>
@@ -9302,7 +9299,7 @@
         <v>79.150000000000006</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>122</v>
       </c>
@@ -9346,7 +9343,7 @@
         <v>85.05</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>122</v>
       </c>
@@ -9390,7 +9387,7 @@
         <v>83.35</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>122</v>
       </c>
@@ -9434,7 +9431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>122</v>
       </c>
@@ -9478,7 +9475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>122</v>
       </c>
@@ -9522,7 +9519,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>122</v>
       </c>
@@ -9566,7 +9563,7 @@
         <v>15.899999999999999</v>
       </c>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>122</v>
       </c>
@@ -9610,7 +9607,7 @@
         <v>20.45</v>
       </c>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>122</v>
       </c>
@@ -9654,7 +9651,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="177" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>122</v>
       </c>
@@ -9698,7 +9695,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="178" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>122</v>
       </c>
@@ -9742,7 +9739,7 @@
         <v>90.949999999999989</v>
       </c>
     </row>
-    <row r="179" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>122</v>
       </c>
@@ -9786,7 +9783,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="180" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>122</v>
       </c>
@@ -9830,7 +9827,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="181" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>122</v>
       </c>
@@ -9874,7 +9871,7 @@
         <v>80.849999999999994</v>
       </c>
     </row>
-    <row r="182" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>122</v>
       </c>
@@ -9918,7 +9915,7 @@
         <v>83.75</v>
       </c>
     </row>
-    <row r="183" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>122</v>
       </c>
@@ -9962,7 +9959,7 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="184" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>122</v>
       </c>
@@ -10006,7 +10003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>122</v>
       </c>
@@ -10050,7 +10047,7 @@
         <v>71.849999999999994</v>
       </c>
     </row>
-    <row r="186" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>122</v>
       </c>
@@ -10094,7 +10091,7 @@
         <v>90.15</v>
       </c>
     </row>
-    <row r="187" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>122</v>
       </c>
@@ -10138,7 +10135,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="188" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>122</v>
       </c>
@@ -10183,7 +10180,7 @@
       </c>
       <c r="S188" s="3"/>
     </row>
-    <row r="189" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>122</v>
       </c>
@@ -10227,7 +10224,7 @@
         <v>88.25</v>
       </c>
     </row>
-    <row r="190" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>122</v>
       </c>
@@ -10271,7 +10268,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="191" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>122</v>
       </c>
@@ -10315,7 +10312,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="192" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>122</v>
       </c>
@@ -10359,7 +10356,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>122</v>
       </c>
@@ -10403,7 +10400,7 @@
         <v>83.25</v>
       </c>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>122</v>
       </c>
@@ -10447,7 +10444,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>122</v>
       </c>
@@ -10491,7 +10488,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>122</v>
       </c>
@@ -10536,6 +10533,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P196" xr:uid="{9D0DA90A-6ADF-4546-9FD5-3306B2ABDFA9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10544,16 +10542,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10600,7 +10598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10647,7 +10645,7 @@
         <v>66.974999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10694,7 +10692,7 @@
         <v>60.900000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10741,7 +10739,7 @@
         <v>65.05</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10788,7 +10786,7 @@
         <v>60.75</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10835,7 +10833,7 @@
         <v>59.97</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -10882,7 +10880,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -10929,7 +10927,7 @@
         <v>63.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -10976,7 +10974,7 @@
         <v>59.349999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -11023,7 +11021,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -11070,7 +11068,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11117,7 +11115,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -11164,7 +11162,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -11211,7 +11209,7 @@
         <v>66.949999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -11258,7 +11256,7 @@
         <v>66.95</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -11305,7 +11303,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -11352,7 +11350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -11399,7 +11397,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -11446,7 +11444,7 @@
         <v>65.849999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -11493,7 +11491,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -11540,7 +11538,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -11587,7 +11585,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -11634,7 +11632,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -11681,7 +11679,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -11728,7 +11726,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -11775,7 +11773,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -11822,7 +11820,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -11869,7 +11867,7 @@
         <v>47.25</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -11916,7 +11914,7 @@
         <v>51.099999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -11963,7 +11961,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -12010,7 +12008,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -12057,7 +12055,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -12104,7 +12102,7 @@
         <v>30.799999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -12151,7 +12149,7 @@
         <v>35.849999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -12198,7 +12196,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -12245,7 +12243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -12289,7 +12287,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -12333,7 +12331,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -12380,7 +12378,7 @@
         <v>29.35</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -12424,7 +12422,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -12471,7 +12469,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -12518,7 +12516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -12565,7 +12563,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -12612,7 +12610,7 @@
         <v>69.55</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -12659,7 +12657,7 @@
         <v>69.650000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -12706,7 +12704,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -12753,7 +12751,7 @@
         <v>66.449999999999989</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -12800,7 +12798,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -12847,7 +12845,7 @@
         <v>74.45</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -12894,7 +12892,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -12941,7 +12939,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -12988,7 +12986,7 @@
         <v>72.650000000000006</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -13035,7 +13033,7 @@
         <v>77.05</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -13082,7 +13080,7 @@
         <v>72.150000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -13129,7 +13127,7 @@
         <v>83.55</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -13176,7 +13174,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -13223,7 +13221,7 @@
         <v>77.949999999999989</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -13270,7 +13268,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -13317,7 +13315,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -13364,7 +13362,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -13411,7 +13409,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -13458,7 +13456,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -13505,7 +13503,7 @@
         <v>67.949999999999989</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -13552,7 +13550,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
@@ -13599,7 +13597,7 @@
         <v>68.150000000000006</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -13646,7 +13644,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -13693,7 +13691,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -13740,7 +13738,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
@@ -13787,7 +13785,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -13834,7 +13832,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -13881,7 +13879,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
@@ -13928,7 +13926,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
@@ -13975,7 +13973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>4</v>
       </c>
@@ -14022,7 +14020,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -14069,7 +14067,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -14113,7 +14111,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -14160,7 +14158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -14207,7 +14205,7 @@
         <v>25.299999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -14254,7 +14252,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -14301,7 +14299,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -14348,7 +14346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -14395,7 +14393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -14442,7 +14440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -14489,7 +14487,7 @@
         <v>71.95</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -14536,7 +14534,7 @@
         <v>65.699999999999989</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3</v>
       </c>
@@ -14583,7 +14581,7 @@
         <v>66.05</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -14630,7 +14628,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -14677,7 +14675,7 @@
         <v>74.150000000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -14724,7 +14722,7 @@
         <v>71.95</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3</v>
       </c>
@@ -14771,7 +14769,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -14818,7 +14816,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>110</v>
       </c>
@@ -14859,7 +14857,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>110</v>
       </c>
@@ -14900,7 +14898,7 @@
         <v>56.75</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>110</v>
       </c>
@@ -14941,7 +14939,7 @@
         <v>56.15</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>110</v>
       </c>
@@ -14982,7 +14980,7 @@
         <v>104.85</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>110</v>
       </c>
@@ -15023,7 +15021,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>110</v>
       </c>
@@ -15064,7 +15062,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>110</v>
       </c>
@@ -15105,7 +15103,7 @@
         <v>53.65</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>110</v>
       </c>
@@ -15146,7 +15144,7 @@
         <v>42.95</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>110</v>
       </c>
@@ -15187,7 +15185,7 @@
         <v>33.450000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>110</v>
       </c>
@@ -15228,7 +15226,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -15275,7 +15273,7 @@
         <v>73.949999999999989</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -15322,7 +15320,7 @@
         <v>70.05</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -15369,7 +15367,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -15416,7 +15414,7 @@
         <v>61.85</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -15463,7 +15461,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -15510,7 +15508,7 @@
         <v>47.05</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -15557,7 +15555,7 @@
         <v>41.95</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -15604,7 +15602,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -15651,7 +15649,7 @@
         <v>39.849999999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>4</v>
       </c>
@@ -15698,7 +15696,7 @@
         <v>71.75</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>67</v>
       </c>
@@ -15739,7 +15737,7 @@
         <v>122.95</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>67</v>
       </c>
@@ -15781,7 +15779,7 @@
         <v>118.25</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>67</v>
       </c>
@@ -15822,7 +15820,7 @@
         <v>108.1</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>67</v>
       </c>
@@ -15863,7 +15861,7 @@
         <v>98.050000000000011</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>67</v>
       </c>
@@ -15904,7 +15902,7 @@
         <v>81.349999999999994</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>67</v>
       </c>
@@ -15945,7 +15943,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>67</v>
       </c>
@@ -15986,7 +15984,7 @@
         <v>47.099999999999994</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>67</v>
       </c>
@@ -16027,7 +16025,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>67</v>
       </c>
@@ -16068,7 +16066,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>67</v>
       </c>
@@ -16109,7 +16107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>67</v>
       </c>
@@ -16150,7 +16148,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>67</v>
       </c>
@@ -16191,7 +16189,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>67</v>
       </c>
@@ -16232,7 +16230,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>67</v>
       </c>
@@ -16251,8 +16249,9 @@
       <c r="H125" t="s">
         <v>42</v>
       </c>
-      <c r="I125" t="s">
-        <v>119</v>
+      <c r="I125">
+        <f>B431</f>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>29</v>
@@ -16274,7 +16273,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>67</v>
       </c>

--- a/Data-analysis/contact angles.xlsx
+++ b/Data-analysis/contact angles.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdhig\Documents\MS-Thesis-Pitt\Data-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\MS-Thesis-Pitt\Data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81826F11-A53F-4957-9E60-F02FEE4A26CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E724D-51FF-4DE1-A352-AD0035B3D056}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="720" windowWidth="16548" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$267</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="272">
   <si>
     <t>Drop</t>
   </si>
@@ -795,13 +795,238 @@
   </si>
   <si>
     <t>plas_coated</t>
+  </si>
+  <si>
+    <t>clean_PBS_3uL_1</t>
+  </si>
+  <si>
+    <t>PBS</t>
+  </si>
+  <si>
+    <t>clean_PBS_3uL_2</t>
+  </si>
+  <si>
+    <t>clean_PBS_3uL_3</t>
+  </si>
+  <si>
+    <t>clean_PBS_3uL_4</t>
+  </si>
+  <si>
+    <t>clean_PBS_3uL_5</t>
+  </si>
+  <si>
+    <t>clean_PBS_3uL_6</t>
+  </si>
+  <si>
+    <t>clean_.33plas_3uL_1</t>
+  </si>
+  <si>
+    <t>clean_.33plas_3uL_2</t>
+  </si>
+  <si>
+    <t>clean_.33plas_3uL_3</t>
+  </si>
+  <si>
+    <t>clean_.33plas_3uL_4</t>
+  </si>
+  <si>
+    <t>clean_.33plas_3uL_5</t>
+  </si>
+  <si>
+    <t>clean_.33plas_3uL_6</t>
+  </si>
+  <si>
+    <t>clean_.67plas_3uL_1</t>
+  </si>
+  <si>
+    <t>clean_.67plas_3uL_2</t>
+  </si>
+  <si>
+    <t>clean_.67plas_3uL_3</t>
+  </si>
+  <si>
+    <t>clean_.67plas_3uL_4</t>
+  </si>
+  <si>
+    <t>clean_.67plas_3uL_5</t>
+  </si>
+  <si>
+    <t>clean_.67plas_3uL_6</t>
+  </si>
+  <si>
+    <t>clean_plas_3uL_1</t>
+  </si>
+  <si>
+    <t>clean_plas_3uL_2</t>
+  </si>
+  <si>
+    <t>clean_plas_3uL_3</t>
+  </si>
+  <si>
+    <t>clean_plas_3uL_4</t>
+  </si>
+  <si>
+    <t>clean_plas_3uL_5</t>
+  </si>
+  <si>
+    <t>clean_plas_3uL_6</t>
+  </si>
+  <si>
+    <t>.33plasma</t>
+  </si>
+  <si>
+    <t>.67plasma</t>
+  </si>
+  <si>
+    <t>.33plas_.33plas_3uL_1</t>
+  </si>
+  <si>
+    <t>.33plas_.33plas_3uL_2</t>
+  </si>
+  <si>
+    <t>.33plas_.33plas_3uL_3</t>
+  </si>
+  <si>
+    <t>.33plas_.33plas_3uL_4</t>
+  </si>
+  <si>
+    <t>0.67plas_.67plas_3uL_1</t>
+  </si>
+  <si>
+    <t>0.67plas_.67plas_3uL_2</t>
+  </si>
+  <si>
+    <t>0.67plas_.67plas_3uL_3</t>
+  </si>
+  <si>
+    <t>0.67plas_.67plas_3uL_4</t>
+  </si>
+  <si>
+    <t>0.67plas_.67plas_3uL_5</t>
+  </si>
+  <si>
+    <t>PBS_PBS_3uL_1</t>
+  </si>
+  <si>
+    <t>PBS_PBS_3uL_2</t>
+  </si>
+  <si>
+    <t>PBS_PBS_3uL_3</t>
+  </si>
+  <si>
+    <t>PBS_PBS_3uL_4</t>
+  </si>
+  <si>
+    <t>PBS_PBS_3uL_5</t>
+  </si>
+  <si>
+    <t>PBS_PBS_3uL_6</t>
+  </si>
+  <si>
+    <t>plasma_plasma_3uL_1</t>
+  </si>
+  <si>
+    <t>plasma_plasma_3uL_2</t>
+  </si>
+  <si>
+    <t>plasma_plasma_3uL_3</t>
+  </si>
+  <si>
+    <t>plasma_plasma_3uL_4</t>
+  </si>
+  <si>
+    <t>plasma_plasma_3uL_5</t>
+  </si>
+  <si>
+    <t>plasma_plasma_3uL_6</t>
+  </si>
+  <si>
+    <t>0.1plas_.1plas_3uL_1</t>
+  </si>
+  <si>
+    <t>0.1plas_.1plas_3uL_2</t>
+  </si>
+  <si>
+    <t>0.1plas_.1plas_3uL_3</t>
+  </si>
+  <si>
+    <t>0.1plas_.1plas_3uL_4</t>
+  </si>
+  <si>
+    <t>0.1plas_.1plas_3uL_5</t>
+  </si>
+  <si>
+    <t>clean_.1plas_3uL_1</t>
+  </si>
+  <si>
+    <t>clean_.1plas_3uL_2</t>
+  </si>
+  <si>
+    <t>clean_.1plas_3uL_3</t>
+  </si>
+  <si>
+    <t>clean_.1plas_3uL_4</t>
+  </si>
+  <si>
+    <t>clean_.1plas_3uL_5</t>
+  </si>
+  <si>
+    <t>clean_.1plas_3uL_6</t>
+  </si>
+  <si>
+    <t>.1plasma</t>
+  </si>
+  <si>
+    <t>clean_.1plas_3uL_7</t>
+  </si>
+  <si>
+    <t>clean_.1plas_3uL_8</t>
+  </si>
+  <si>
+    <t>clean_.1plas_3uL_9</t>
+  </si>
+  <si>
+    <t>clean_matte_plasma_3uL_1</t>
+  </si>
+  <si>
+    <t>clean_matte_plasma_3uL_2</t>
+  </si>
+  <si>
+    <t>clean_matte_plasma_3uL_3</t>
+  </si>
+  <si>
+    <t>clean_matte_plasma_3uL_4</t>
+  </si>
+  <si>
+    <t>clean_matte_plasma_3uL_5</t>
+  </si>
+  <si>
+    <t>clean_matte_plasma_3uL_6</t>
+  </si>
+  <si>
+    <t>plasma_matte_plasma_3uL_1</t>
+  </si>
+  <si>
+    <t>plasma_matte_plasma_3uL_2</t>
+  </si>
+  <si>
+    <t>plasma_matte_plasma_3uL_3</t>
+  </si>
+  <si>
+    <t>plasma_matte_plasma_3uL_4</t>
+  </si>
+  <si>
+    <t>plasma_matte_plasma_3uL_5</t>
+  </si>
+  <si>
+    <t>plasma_matte_plasma_3uL_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +1046,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -879,8 +1110,8 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>411885</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114626</xdr:rowOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>99386</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -923,7 +1154,7 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>518387</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>160319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -967,8 +1198,8 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1301,11 +1532,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S196"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K197" sqref="K197:K263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,11 +1547,11 @@
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.33203125" style="2" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
@@ -1377,7 +1609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1427,7 +1659,7 @@
         <v>66.974999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1477,7 +1709,7 @@
         <v>60.900000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1527,7 +1759,7 @@
         <v>65.05</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1577,7 +1809,7 @@
         <v>60.75</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1627,7 +1859,7 @@
         <v>59.97</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1677,7 +1909,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1727,7 +1959,7 @@
         <v>63.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1777,7 +2009,7 @@
         <v>59.349999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1827,7 +2059,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1877,7 +2109,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1927,7 +2159,7 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1977,7 +2209,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2027,7 +2259,7 @@
         <v>66.949999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2077,7 +2309,7 @@
         <v>66.95</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2127,7 +2359,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2177,7 +2409,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2227,7 +2459,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2277,7 +2509,7 @@
         <v>65.849999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2327,7 +2559,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2377,7 +2609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2427,7 +2659,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2477,7 +2709,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2527,7 +2759,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2577,7 +2809,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2627,7 +2859,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2677,7 +2909,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2727,7 +2959,7 @@
         <v>47.25</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2777,7 +3009,7 @@
         <v>51.099999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2827,7 +3059,7 @@
         <v>56.55</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2877,7 +3109,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2927,7 +3159,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2977,7 +3209,7 @@
         <v>30.799999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3027,7 +3259,7 @@
         <v>35.849999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3077,7 +3309,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3127,7 +3359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3174,7 +3406,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3221,7 +3453,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3271,7 +3503,7 @@
         <v>29.35</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3318,7 +3550,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3368,7 +3600,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3418,7 +3650,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3468,7 +3700,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3518,7 +3750,7 @@
         <v>69.55</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3568,7 +3800,7 @@
         <v>69.650000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3618,7 +3850,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3668,7 +3900,7 @@
         <v>66.449999999999989</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3718,7 +3950,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -3768,7 +4000,7 @@
         <v>74.45</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3818,7 +4050,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -3868,7 +4100,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3918,7 +4150,7 @@
         <v>72.650000000000006</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -3968,7 +4200,7 @@
         <v>77.05</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -4018,7 +4250,7 @@
         <v>72.150000000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -4068,7 +4300,7 @@
         <v>83.55</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -4118,7 +4350,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4168,7 +4400,7 @@
         <v>77.949999999999989</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -4218,7 +4450,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -4268,7 +4500,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -4318,7 +4550,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -4368,7 +4600,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -4418,7 +4650,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -4468,7 +4700,7 @@
         <v>67.949999999999989</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -4518,7 +4750,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
@@ -4568,7 +4800,7 @@
         <v>68.150000000000006</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -4618,7 +4850,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -4668,7 +4900,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -4718,7 +4950,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
@@ -4768,7 +5000,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -4818,7 +5050,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -4868,7 +5100,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
@@ -4918,7 +5150,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
@@ -4968,7 +5200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>4</v>
       </c>
@@ -5018,7 +5250,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -5068,7 +5300,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -5115,7 +5347,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -5165,7 +5397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -5215,7 +5447,7 @@
         <v>25.299999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>4</v>
       </c>
@@ -5265,7 +5497,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -5315,7 +5547,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -5365,7 +5597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -5415,7 +5647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -5465,7 +5697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -5515,7 +5747,7 @@
         <v>71.95</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -5565,7 +5797,7 @@
         <v>65.699999999999989</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3</v>
       </c>
@@ -5615,7 +5847,7 @@
         <v>66.05</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -5665,7 +5897,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -5715,7 +5947,7 @@
         <v>74.150000000000006</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -5765,7 +5997,7 @@
         <v>71.95</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3</v>
       </c>
@@ -5815,7 +6047,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -5865,7 +6097,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>122</v>
       </c>
@@ -5909,7 +6141,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>122</v>
       </c>
@@ -5953,7 +6185,7 @@
         <v>56.75</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>122</v>
       </c>
@@ -5997,7 +6229,7 @@
         <v>56.15</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>122</v>
       </c>
@@ -6041,7 +6273,7 @@
         <v>104.85</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>122</v>
       </c>
@@ -6085,7 +6317,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>122</v>
       </c>
@@ -6129,7 +6361,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>122</v>
       </c>
@@ -6173,7 +6405,7 @@
         <v>53.65</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>122</v>
       </c>
@@ -6217,7 +6449,7 @@
         <v>42.95</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>122</v>
       </c>
@@ -6261,7 +6493,7 @@
         <v>33.450000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>122</v>
       </c>
@@ -6305,7 +6537,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -6355,7 +6587,7 @@
         <v>73.949999999999989</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -6405,7 +6637,7 @@
         <v>70.05</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -6455,7 +6687,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -6505,7 +6737,7 @@
         <v>61.85</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -6555,7 +6787,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -6605,7 +6837,7 @@
         <v>47.05</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -6655,7 +6887,7 @@
         <v>41.95</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -6705,7 +6937,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -6755,7 +6987,7 @@
         <v>39.849999999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>4</v>
       </c>
@@ -6805,7 +7037,7 @@
         <v>71.75</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>67</v>
       </c>
@@ -6849,7 +7081,7 @@
         <v>122.95</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>67</v>
       </c>
@@ -6893,7 +7125,7 @@
         <v>118.25</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>67</v>
       </c>
@@ -6937,7 +7169,7 @@
         <v>108.1</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>67</v>
       </c>
@@ -6981,7 +7213,7 @@
         <v>98.050000000000011</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>67</v>
       </c>
@@ -7025,7 +7257,7 @@
         <v>81.349999999999994</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>67</v>
       </c>
@@ -7069,7 +7301,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>67</v>
       </c>
@@ -7113,7 +7345,7 @@
         <v>47.099999999999994</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>67</v>
       </c>
@@ -7157,7 +7389,7 @@
         <v>76.849999999999994</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>67</v>
       </c>
@@ -7201,7 +7433,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>67</v>
       </c>
@@ -7245,7 +7477,7 @@
         <v>65.95</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>67</v>
       </c>
@@ -7289,7 +7521,7 @@
         <v>67.55</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>67</v>
       </c>
@@ -7333,7 +7565,7 @@
         <v>65.800000000000011</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>67</v>
       </c>
@@ -7377,7 +7609,7 @@
         <v>65.800000000000011</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>110</v>
       </c>
@@ -7421,7 +7653,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>110</v>
       </c>
@@ -7463,7 +7695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>67</v>
       </c>
@@ -7507,7 +7739,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>67</v>
       </c>
@@ -7549,7 +7781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>67</v>
       </c>
@@ -7591,7 +7823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>67</v>
       </c>
@@ -7635,7 +7867,7 @@
         <v>18.350000000000001</v>
       </c>
     </row>
-    <row r="131" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>67</v>
       </c>
@@ -7679,7 +7911,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="132" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>67</v>
       </c>
@@ -7723,7 +7955,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="133" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>67</v>
       </c>
@@ -7764,7 +7996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>67</v>
       </c>
@@ -7805,7 +8037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>67</v>
       </c>
@@ -7846,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>122</v>
       </c>
@@ -7890,7 +8122,7 @@
         <v>81.55</v>
       </c>
     </row>
-    <row r="137" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>122</v>
       </c>
@@ -7934,7 +8166,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="138" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>122</v>
       </c>
@@ -7978,7 +8210,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="139" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>122</v>
       </c>
@@ -8022,7 +8254,7 @@
         <v>81.550000000000011</v>
       </c>
     </row>
-    <row r="140" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>122</v>
       </c>
@@ -8066,7 +8298,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="141" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>122</v>
       </c>
@@ -8110,7 +8342,7 @@
         <v>83.95</v>
       </c>
     </row>
-    <row r="142" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>122</v>
       </c>
@@ -8154,7 +8386,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="143" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>122</v>
       </c>
@@ -8198,7 +8430,7 @@
         <v>99.3</v>
       </c>
     </row>
-    <row r="144" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>122</v>
       </c>
@@ -8243,7 +8475,7 @@
       </c>
       <c r="S144" s="3"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>122</v>
       </c>
@@ -8287,7 +8519,7 @@
         <v>105.55000000000001</v>
       </c>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>122</v>
       </c>
@@ -8331,7 +8563,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>122</v>
       </c>
@@ -8375,7 +8607,7 @@
         <v>103.05000000000001</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>122</v>
       </c>
@@ -8419,7 +8651,7 @@
         <v>95.65</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>122</v>
       </c>
@@ -8463,7 +8695,7 @@
         <v>85.15</v>
       </c>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>122</v>
       </c>
@@ -8507,7 +8739,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>122</v>
       </c>
@@ -8551,7 +8783,7 @@
         <v>100.85</v>
       </c>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>122</v>
       </c>
@@ -8595,7 +8827,7 @@
         <v>88.35</v>
       </c>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>122</v>
       </c>
@@ -8639,7 +8871,7 @@
         <v>95.550000000000011</v>
       </c>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>122</v>
       </c>
@@ -8683,7 +8915,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>122</v>
       </c>
@@ -8727,7 +8959,7 @@
         <v>83.800000000000011</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>122</v>
       </c>
@@ -8771,7 +9003,7 @@
         <v>68.25</v>
       </c>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>122</v>
       </c>
@@ -8815,7 +9047,7 @@
         <v>89.449999999999989</v>
       </c>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>122</v>
       </c>
@@ -8859,7 +9091,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>122</v>
       </c>
@@ -8903,7 +9135,7 @@
         <v>70.199999999999989</v>
       </c>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>122</v>
       </c>
@@ -8947,7 +9179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>122</v>
       </c>
@@ -8991,7 +9223,7 @@
         <v>88.35</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>122</v>
       </c>
@@ -9035,7 +9267,7 @@
         <v>78.25</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>122</v>
       </c>
@@ -9079,7 +9311,7 @@
         <v>82.199999999999989</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>122</v>
       </c>
@@ -9123,7 +9355,7 @@
         <v>87.75</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>122</v>
       </c>
@@ -9167,7 +9399,7 @@
         <v>80.349999999999994</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>122</v>
       </c>
@@ -9211,7 +9443,7 @@
         <v>91.699999999999989</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>122</v>
       </c>
@@ -9255,7 +9487,7 @@
         <v>81.45</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>122</v>
       </c>
@@ -9299,7 +9531,7 @@
         <v>79.150000000000006</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>122</v>
       </c>
@@ -9343,7 +9575,7 @@
         <v>85.05</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>122</v>
       </c>
@@ -9387,7 +9619,7 @@
         <v>83.35</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>122</v>
       </c>
@@ -9431,7 +9663,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>122</v>
       </c>
@@ -9475,7 +9707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>122</v>
       </c>
@@ -9519,7 +9751,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>122</v>
       </c>
@@ -9563,7 +9795,7 @@
         <v>15.899999999999999</v>
       </c>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>122</v>
       </c>
@@ -9607,7 +9839,7 @@
         <v>20.45</v>
       </c>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>122</v>
       </c>
@@ -9651,7 +9883,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="177" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>122</v>
       </c>
@@ -9695,7 +9927,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="178" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>122</v>
       </c>
@@ -9739,7 +9971,7 @@
         <v>90.949999999999989</v>
       </c>
     </row>
-    <row r="179" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>122</v>
       </c>
@@ -9783,7 +10015,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="180" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>122</v>
       </c>
@@ -9827,7 +10059,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="181" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>122</v>
       </c>
@@ -9871,7 +10103,7 @@
         <v>80.849999999999994</v>
       </c>
     </row>
-    <row r="182" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>122</v>
       </c>
@@ -9915,7 +10147,7 @@
         <v>83.75</v>
       </c>
     </row>
-    <row r="183" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>122</v>
       </c>
@@ -9959,7 +10191,7 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="184" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>122</v>
       </c>
@@ -10003,7 +10235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>122</v>
       </c>
@@ -10047,7 +10279,7 @@
         <v>71.849999999999994</v>
       </c>
     </row>
-    <row r="186" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>122</v>
       </c>
@@ -10091,7 +10323,7 @@
         <v>90.15</v>
       </c>
     </row>
-    <row r="187" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>122</v>
       </c>
@@ -10135,7 +10367,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="188" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>122</v>
       </c>
@@ -10180,7 +10412,7 @@
       </c>
       <c r="S188" s="3"/>
     </row>
-    <row r="189" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>122</v>
       </c>
@@ -10224,7 +10456,7 @@
         <v>88.25</v>
       </c>
     </row>
-    <row r="190" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>122</v>
       </c>
@@ -10268,7 +10500,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="191" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>122</v>
       </c>
@@ -10312,7 +10544,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="192" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>122</v>
       </c>
@@ -10356,7 +10588,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>122</v>
       </c>
@@ -10400,7 +10632,7 @@
         <v>83.25</v>
       </c>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>122</v>
       </c>
@@ -10444,7 +10676,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>122</v>
       </c>
@@ -10488,7 +10720,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>122</v>
       </c>
@@ -10532,8 +10764,3133 @@
         <v>101.4</v>
       </c>
     </row>
+    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>67</v>
+      </c>
+      <c r="D197" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E197" t="s">
+        <v>61</v>
+      </c>
+      <c r="F197" t="s">
+        <v>197</v>
+      </c>
+      <c r="G197">
+        <v>3</v>
+      </c>
+      <c r="H197" t="s">
+        <v>42</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>9</v>
+      </c>
+      <c r="K197" t="s">
+        <v>198</v>
+      </c>
+      <c r="L197" t="s">
+        <v>10</v>
+      </c>
+      <c r="M197" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N197">
+        <v>60</v>
+      </c>
+      <c r="O197">
+        <v>57.6</v>
+      </c>
+      <c r="P197">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>67</v>
+      </c>
+      <c r="D198" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E198" t="s">
+        <v>61</v>
+      </c>
+      <c r="F198" t="s">
+        <v>199</v>
+      </c>
+      <c r="G198">
+        <v>3</v>
+      </c>
+      <c r="H198" t="s">
+        <v>42</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198" t="s">
+        <v>9</v>
+      </c>
+      <c r="K198" t="s">
+        <v>198</v>
+      </c>
+      <c r="L198" t="s">
+        <v>10</v>
+      </c>
+      <c r="M198" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N198">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="O198">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="P198">
+        <v>65.150000000000006</v>
+      </c>
+    </row>
+    <row r="199" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>67</v>
+      </c>
+      <c r="D199" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E199" t="s">
+        <v>61</v>
+      </c>
+      <c r="F199" t="s">
+        <v>200</v>
+      </c>
+      <c r="G199">
+        <v>3</v>
+      </c>
+      <c r="H199" t="s">
+        <v>42</v>
+      </c>
+      <c r="I199">
+        <v>3</v>
+      </c>
+      <c r="J199" t="s">
+        <v>9</v>
+      </c>
+      <c r="K199" t="s">
+        <v>198</v>
+      </c>
+      <c r="L199" t="s">
+        <v>10</v>
+      </c>
+      <c r="M199" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N199">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="O199">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="P199">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>67</v>
+      </c>
+      <c r="D200" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E200" t="s">
+        <v>61</v>
+      </c>
+      <c r="F200" t="s">
+        <v>201</v>
+      </c>
+      <c r="G200">
+        <v>3</v>
+      </c>
+      <c r="H200" t="s">
+        <v>42</v>
+      </c>
+      <c r="I200">
+        <v>4</v>
+      </c>
+      <c r="J200" t="s">
+        <v>9</v>
+      </c>
+      <c r="K200" t="s">
+        <v>198</v>
+      </c>
+      <c r="L200" t="s">
+        <v>10</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N200">
+        <v>65.3</v>
+      </c>
+      <c r="O200">
+        <v>66.2</v>
+      </c>
+      <c r="P200">
+        <v>65.75</v>
+      </c>
+    </row>
+    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>67</v>
+      </c>
+      <c r="D201" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E201" t="s">
+        <v>61</v>
+      </c>
+      <c r="F201" t="s">
+        <v>202</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
+      </c>
+      <c r="H201" t="s">
+        <v>42</v>
+      </c>
+      <c r="I201">
+        <v>5</v>
+      </c>
+      <c r="J201" t="s">
+        <v>9</v>
+      </c>
+      <c r="K201" t="s">
+        <v>198</v>
+      </c>
+      <c r="L201" t="s">
+        <v>10</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N201">
+        <v>67.7</v>
+      </c>
+      <c r="O201">
+        <v>66.7</v>
+      </c>
+      <c r="P201">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>67</v>
+      </c>
+      <c r="D202" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E202" t="s">
+        <v>61</v>
+      </c>
+      <c r="F202" t="s">
+        <v>203</v>
+      </c>
+      <c r="G202">
+        <v>3</v>
+      </c>
+      <c r="H202" t="s">
+        <v>42</v>
+      </c>
+      <c r="I202">
+        <v>6</v>
+      </c>
+      <c r="J202" t="s">
+        <v>9</v>
+      </c>
+      <c r="K202" t="s">
+        <v>198</v>
+      </c>
+      <c r="L202" t="s">
+        <v>10</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N202">
+        <v>61.2</v>
+      </c>
+      <c r="O202">
+        <v>58.4</v>
+      </c>
+      <c r="P202">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>67</v>
+      </c>
+      <c r="D203" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E203" t="s">
+        <v>61</v>
+      </c>
+      <c r="F203" t="s">
+        <v>204</v>
+      </c>
+      <c r="G203">
+        <v>3</v>
+      </c>
+      <c r="H203" t="s">
+        <v>42</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>9</v>
+      </c>
+      <c r="K203" t="s">
+        <v>222</v>
+      </c>
+      <c r="L203" t="s">
+        <v>10</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N203">
+        <v>54.7</v>
+      </c>
+      <c r="O203">
+        <v>60.3</v>
+      </c>
+      <c r="P203">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>67</v>
+      </c>
+      <c r="D204" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E204" t="s">
+        <v>61</v>
+      </c>
+      <c r="F204" t="s">
+        <v>205</v>
+      </c>
+      <c r="G204">
+        <v>3</v>
+      </c>
+      <c r="H204" t="s">
+        <v>42</v>
+      </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204" t="s">
+        <v>9</v>
+      </c>
+      <c r="K204" t="s">
+        <v>222</v>
+      </c>
+      <c r="L204" t="s">
+        <v>10</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N204">
+        <v>56.5</v>
+      </c>
+      <c r="O204">
+        <v>58</v>
+      </c>
+      <c r="P204">
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>67</v>
+      </c>
+      <c r="D205" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E205" t="s">
+        <v>61</v>
+      </c>
+      <c r="F205" t="s">
+        <v>206</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
+      <c r="H205" t="s">
+        <v>42</v>
+      </c>
+      <c r="I205">
+        <v>3</v>
+      </c>
+      <c r="J205" t="s">
+        <v>9</v>
+      </c>
+      <c r="K205" t="s">
+        <v>222</v>
+      </c>
+      <c r="L205" t="s">
+        <v>10</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N205">
+        <v>55.9</v>
+      </c>
+      <c r="O205">
+        <v>56.2</v>
+      </c>
+      <c r="P205">
+        <v>56.05</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>67</v>
+      </c>
+      <c r="D206" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E206" t="s">
+        <v>61</v>
+      </c>
+      <c r="F206" t="s">
+        <v>207</v>
+      </c>
+      <c r="G206">
+        <v>3</v>
+      </c>
+      <c r="H206" t="s">
+        <v>42</v>
+      </c>
+      <c r="I206">
+        <v>4</v>
+      </c>
+      <c r="J206" t="s">
+        <v>9</v>
+      </c>
+      <c r="K206" t="s">
+        <v>222</v>
+      </c>
+      <c r="L206" t="s">
+        <v>10</v>
+      </c>
+      <c r="M206" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N206">
+        <v>56.8</v>
+      </c>
+      <c r="O206">
+        <v>58.2</v>
+      </c>
+      <c r="P206">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>67</v>
+      </c>
+      <c r="D207" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E207" t="s">
+        <v>61</v>
+      </c>
+      <c r="F207" t="s">
+        <v>208</v>
+      </c>
+      <c r="G207">
+        <v>3</v>
+      </c>
+      <c r="H207" t="s">
+        <v>42</v>
+      </c>
+      <c r="I207">
+        <v>5</v>
+      </c>
+      <c r="J207" t="s">
+        <v>9</v>
+      </c>
+      <c r="K207" t="s">
+        <v>222</v>
+      </c>
+      <c r="L207" t="s">
+        <v>10</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N207">
+        <v>54.9</v>
+      </c>
+      <c r="O207">
+        <v>55</v>
+      </c>
+      <c r="P207">
+        <v>54.95</v>
+      </c>
+    </row>
+    <row r="208" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>67</v>
+      </c>
+      <c r="D208" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E208" t="s">
+        <v>61</v>
+      </c>
+      <c r="F208" t="s">
+        <v>209</v>
+      </c>
+      <c r="G208">
+        <v>3</v>
+      </c>
+      <c r="H208" t="s">
+        <v>42</v>
+      </c>
+      <c r="I208">
+        <v>6</v>
+      </c>
+      <c r="J208" t="s">
+        <v>9</v>
+      </c>
+      <c r="K208" t="s">
+        <v>222</v>
+      </c>
+      <c r="L208" t="s">
+        <v>10</v>
+      </c>
+      <c r="M208" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N208">
+        <v>50.7</v>
+      </c>
+      <c r="O208">
+        <v>49.1</v>
+      </c>
+      <c r="P208">
+        <v>49.900000000000006</v>
+      </c>
+    </row>
+    <row r="209" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>67</v>
+      </c>
+      <c r="D209" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E209" t="s">
+        <v>61</v>
+      </c>
+      <c r="F209" t="s">
+        <v>210</v>
+      </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
+      <c r="H209" t="s">
+        <v>42</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
+        <v>9</v>
+      </c>
+      <c r="K209" t="s">
+        <v>223</v>
+      </c>
+      <c r="L209" t="s">
+        <v>10</v>
+      </c>
+      <c r="M209" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N209">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="O209">
+        <v>63</v>
+      </c>
+      <c r="P209">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="210" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>67</v>
+      </c>
+      <c r="D210" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E210" t="s">
+        <v>61</v>
+      </c>
+      <c r="F210" t="s">
+        <v>211</v>
+      </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
+      <c r="H210" t="s">
+        <v>42</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>9</v>
+      </c>
+      <c r="K210" t="s">
+        <v>223</v>
+      </c>
+      <c r="L210" t="s">
+        <v>10</v>
+      </c>
+      <c r="M210" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N210">
+        <v>62.5</v>
+      </c>
+      <c r="O210">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="P210">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="211" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>67</v>
+      </c>
+      <c r="D211" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E211" t="s">
+        <v>61</v>
+      </c>
+      <c r="F211" t="s">
+        <v>212</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211" t="s">
+        <v>42</v>
+      </c>
+      <c r="I211">
+        <v>3</v>
+      </c>
+      <c r="J211" t="s">
+        <v>9</v>
+      </c>
+      <c r="K211" t="s">
+        <v>223</v>
+      </c>
+      <c r="L211" t="s">
+        <v>10</v>
+      </c>
+      <c r="M211" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N211">
+        <v>58.3</v>
+      </c>
+      <c r="O211">
+        <v>63.7</v>
+      </c>
+      <c r="P211">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="212" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>67</v>
+      </c>
+      <c r="D212" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E212" t="s">
+        <v>61</v>
+      </c>
+      <c r="F212" t="s">
+        <v>213</v>
+      </c>
+      <c r="G212">
+        <v>3</v>
+      </c>
+      <c r="H212" t="s">
+        <v>42</v>
+      </c>
+      <c r="I212">
+        <v>4</v>
+      </c>
+      <c r="J212" t="s">
+        <v>9</v>
+      </c>
+      <c r="K212" t="s">
+        <v>223</v>
+      </c>
+      <c r="L212" t="s">
+        <v>10</v>
+      </c>
+      <c r="M212" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N212">
+        <v>58.7</v>
+      </c>
+      <c r="O212">
+        <v>59.2</v>
+      </c>
+      <c r="P212">
+        <v>58.95</v>
+      </c>
+    </row>
+    <row r="213" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>67</v>
+      </c>
+      <c r="D213" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E213" t="s">
+        <v>61</v>
+      </c>
+      <c r="F213" t="s">
+        <v>214</v>
+      </c>
+      <c r="G213">
+        <v>3</v>
+      </c>
+      <c r="H213" t="s">
+        <v>42</v>
+      </c>
+      <c r="I213">
+        <v>5</v>
+      </c>
+      <c r="J213" t="s">
+        <v>9</v>
+      </c>
+      <c r="K213" t="s">
+        <v>223</v>
+      </c>
+      <c r="L213" t="s">
+        <v>10</v>
+      </c>
+      <c r="M213" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N213">
+        <v>59.1</v>
+      </c>
+      <c r="O213">
+        <v>58.9</v>
+      </c>
+      <c r="P213">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="214" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>67</v>
+      </c>
+      <c r="D214" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E214" t="s">
+        <v>61</v>
+      </c>
+      <c r="F214" t="s">
+        <v>215</v>
+      </c>
+      <c r="G214">
+        <v>3</v>
+      </c>
+      <c r="H214" t="s">
+        <v>42</v>
+      </c>
+      <c r="I214">
+        <v>6</v>
+      </c>
+      <c r="J214" t="s">
+        <v>9</v>
+      </c>
+      <c r="K214" t="s">
+        <v>223</v>
+      </c>
+      <c r="L214" t="s">
+        <v>10</v>
+      </c>
+      <c r="M214" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N214">
+        <v>49.1</v>
+      </c>
+      <c r="O214">
+        <v>59.2</v>
+      </c>
+      <c r="P214">
+        <v>54.150000000000006</v>
+      </c>
+    </row>
+    <row r="215" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>67</v>
+      </c>
+      <c r="D215" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E215" t="s">
+        <v>61</v>
+      </c>
+      <c r="F215" t="s">
+        <v>216</v>
+      </c>
+      <c r="G215">
+        <v>3</v>
+      </c>
+      <c r="H215" t="s">
+        <v>42</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="s">
+        <v>9</v>
+      </c>
+      <c r="K215" t="s">
+        <v>29</v>
+      </c>
+      <c r="L215" t="s">
+        <v>10</v>
+      </c>
+      <c r="M215" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N215">
+        <v>62.5</v>
+      </c>
+      <c r="O215">
+        <v>61</v>
+      </c>
+      <c r="P215">
+        <v>61.75</v>
+      </c>
+    </row>
+    <row r="216" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>67</v>
+      </c>
+      <c r="D216" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E216" t="s">
+        <v>61</v>
+      </c>
+      <c r="F216" t="s">
+        <v>217</v>
+      </c>
+      <c r="G216">
+        <v>3</v>
+      </c>
+      <c r="H216" t="s">
+        <v>42</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216" t="s">
+        <v>9</v>
+      </c>
+      <c r="K216" t="s">
+        <v>29</v>
+      </c>
+      <c r="L216" t="s">
+        <v>10</v>
+      </c>
+      <c r="M216" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N216">
+        <v>61.5</v>
+      </c>
+      <c r="O216">
+        <v>62.8</v>
+      </c>
+      <c r="P216">
+        <v>62.15</v>
+      </c>
+    </row>
+    <row r="217" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>67</v>
+      </c>
+      <c r="D217" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E217" t="s">
+        <v>61</v>
+      </c>
+      <c r="F217" t="s">
+        <v>218</v>
+      </c>
+      <c r="G217">
+        <v>3</v>
+      </c>
+      <c r="H217" t="s">
+        <v>42</v>
+      </c>
+      <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217" t="s">
+        <v>9</v>
+      </c>
+      <c r="K217" t="s">
+        <v>29</v>
+      </c>
+      <c r="L217" t="s">
+        <v>10</v>
+      </c>
+      <c r="M217" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N217">
+        <v>55</v>
+      </c>
+      <c r="O217">
+        <v>60</v>
+      </c>
+      <c r="P217">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="218" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>67</v>
+      </c>
+      <c r="D218" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E218" t="s">
+        <v>61</v>
+      </c>
+      <c r="F218" t="s">
+        <v>219</v>
+      </c>
+      <c r="G218">
+        <v>3</v>
+      </c>
+      <c r="H218" t="s">
+        <v>42</v>
+      </c>
+      <c r="I218">
+        <v>4</v>
+      </c>
+      <c r="J218" t="s">
+        <v>9</v>
+      </c>
+      <c r="K218" t="s">
+        <v>29</v>
+      </c>
+      <c r="L218" t="s">
+        <v>10</v>
+      </c>
+      <c r="M218" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N218">
+        <v>63.3</v>
+      </c>
+      <c r="O218">
+        <v>65.5</v>
+      </c>
+      <c r="P218">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="219" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>67</v>
+      </c>
+      <c r="D219" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E219" t="s">
+        <v>61</v>
+      </c>
+      <c r="F219" t="s">
+        <v>220</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+      <c r="H219" t="s">
+        <v>42</v>
+      </c>
+      <c r="I219">
+        <v>5</v>
+      </c>
+      <c r="J219" t="s">
+        <v>9</v>
+      </c>
+      <c r="K219" t="s">
+        <v>29</v>
+      </c>
+      <c r="L219" t="s">
+        <v>10</v>
+      </c>
+      <c r="M219" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N219">
+        <v>43.2</v>
+      </c>
+      <c r="O219">
+        <v>43.8</v>
+      </c>
+      <c r="P219">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="220" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>67</v>
+      </c>
+      <c r="D220" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E220" t="s">
+        <v>61</v>
+      </c>
+      <c r="F220" t="s">
+        <v>221</v>
+      </c>
+      <c r="G220">
+        <v>3</v>
+      </c>
+      <c r="H220" t="s">
+        <v>42</v>
+      </c>
+      <c r="I220">
+        <v>6</v>
+      </c>
+      <c r="J220" t="s">
+        <v>9</v>
+      </c>
+      <c r="K220" t="s">
+        <v>29</v>
+      </c>
+      <c r="L220" t="s">
+        <v>10</v>
+      </c>
+      <c r="M220" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N220">
+        <v>45.3</v>
+      </c>
+      <c r="O220">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="P220">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="221" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
+        <v>67</v>
+      </c>
+      <c r="D221" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E221" t="s">
+        <v>61</v>
+      </c>
+      <c r="F221" t="s">
+        <v>224</v>
+      </c>
+      <c r="G221">
+        <v>3</v>
+      </c>
+      <c r="H221" t="s">
+        <v>91</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>9</v>
+      </c>
+      <c r="K221" t="s">
+        <v>222</v>
+      </c>
+      <c r="L221" t="s">
+        <v>10</v>
+      </c>
+      <c r="M221" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N221">
+        <v>8</v>
+      </c>
+      <c r="O221">
+        <v>9</v>
+      </c>
+      <c r="P221">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="222" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>67</v>
+      </c>
+      <c r="D222" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E222" t="s">
+        <v>61</v>
+      </c>
+      <c r="F222" t="s">
+        <v>225</v>
+      </c>
+      <c r="G222">
+        <v>3</v>
+      </c>
+      <c r="H222" t="s">
+        <v>91</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222" t="s">
+        <v>9</v>
+      </c>
+      <c r="K222" t="s">
+        <v>222</v>
+      </c>
+      <c r="L222" t="s">
+        <v>3</v>
+      </c>
+      <c r="M222" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N222">
+        <v>7.5</v>
+      </c>
+      <c r="O222">
+        <v>5</v>
+      </c>
+      <c r="P222">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="223" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>67</v>
+      </c>
+      <c r="D223" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E223" t="s">
+        <v>61</v>
+      </c>
+      <c r="F223" t="s">
+        <v>226</v>
+      </c>
+      <c r="G223">
+        <v>3</v>
+      </c>
+      <c r="H223" t="s">
+        <v>91</v>
+      </c>
+      <c r="I223">
+        <v>3</v>
+      </c>
+      <c r="J223" t="s">
+        <v>9</v>
+      </c>
+      <c r="K223" t="s">
+        <v>222</v>
+      </c>
+      <c r="L223" t="s">
+        <v>3</v>
+      </c>
+      <c r="M223" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N223">
+        <v>10</v>
+      </c>
+      <c r="O223">
+        <v>12</v>
+      </c>
+      <c r="P223">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
+        <v>67</v>
+      </c>
+      <c r="D224" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E224" t="s">
+        <v>61</v>
+      </c>
+      <c r="F224" t="s">
+        <v>227</v>
+      </c>
+      <c r="G224">
+        <v>3</v>
+      </c>
+      <c r="H224" t="s">
+        <v>91</v>
+      </c>
+      <c r="I224">
+        <v>4</v>
+      </c>
+      <c r="J224" t="s">
+        <v>9</v>
+      </c>
+      <c r="K224" t="s">
+        <v>222</v>
+      </c>
+      <c r="L224" t="s">
+        <v>3</v>
+      </c>
+      <c r="M224" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N224">
+        <v>11</v>
+      </c>
+      <c r="O224">
+        <v>14</v>
+      </c>
+      <c r="P224">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="225" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
+        <v>67</v>
+      </c>
+      <c r="D225" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E225" t="s">
+        <v>61</v>
+      </c>
+      <c r="F225" t="s">
+        <v>228</v>
+      </c>
+      <c r="G225">
+        <v>3</v>
+      </c>
+      <c r="H225" t="s">
+        <v>91</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>9</v>
+      </c>
+      <c r="K225" t="s">
+        <v>223</v>
+      </c>
+      <c r="L225" t="s">
+        <v>3</v>
+      </c>
+      <c r="M225" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N225">
+        <v>20</v>
+      </c>
+      <c r="O225">
+        <v>19</v>
+      </c>
+      <c r="P225">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="226" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
+        <v>67</v>
+      </c>
+      <c r="D226" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E226" t="s">
+        <v>61</v>
+      </c>
+      <c r="F226" t="s">
+        <v>229</v>
+      </c>
+      <c r="G226">
+        <v>3</v>
+      </c>
+      <c r="H226" t="s">
+        <v>91</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226" t="s">
+        <v>9</v>
+      </c>
+      <c r="K226" t="s">
+        <v>223</v>
+      </c>
+      <c r="L226" t="s">
+        <v>3</v>
+      </c>
+      <c r="M226" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N226">
+        <v>16</v>
+      </c>
+      <c r="O226">
+        <v>17</v>
+      </c>
+      <c r="P226">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="227" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
+        <v>67</v>
+      </c>
+      <c r="D227" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E227" t="s">
+        <v>61</v>
+      </c>
+      <c r="F227" t="s">
+        <v>230</v>
+      </c>
+      <c r="G227">
+        <v>3</v>
+      </c>
+      <c r="H227" t="s">
+        <v>91</v>
+      </c>
+      <c r="I227">
+        <v>3</v>
+      </c>
+      <c r="J227" t="s">
+        <v>9</v>
+      </c>
+      <c r="K227" t="s">
+        <v>223</v>
+      </c>
+      <c r="L227" t="s">
+        <v>3</v>
+      </c>
+      <c r="M227" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N227">
+        <v>11</v>
+      </c>
+      <c r="P227">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>67</v>
+      </c>
+      <c r="D228" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E228" t="s">
+        <v>61</v>
+      </c>
+      <c r="F228" t="s">
+        <v>231</v>
+      </c>
+      <c r="G228">
+        <v>3</v>
+      </c>
+      <c r="H228" t="s">
+        <v>91</v>
+      </c>
+      <c r="I228">
+        <v>4</v>
+      </c>
+      <c r="J228" t="s">
+        <v>9</v>
+      </c>
+      <c r="K228" t="s">
+        <v>223</v>
+      </c>
+      <c r="L228" t="s">
+        <v>3</v>
+      </c>
+      <c r="M228" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N228">
+        <v>17</v>
+      </c>
+      <c r="O228">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="P228">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="229" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>67</v>
+      </c>
+      <c r="D229" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E229" t="s">
+        <v>61</v>
+      </c>
+      <c r="F229" t="s">
+        <v>232</v>
+      </c>
+      <c r="G229">
+        <v>3</v>
+      </c>
+      <c r="H229" t="s">
+        <v>91</v>
+      </c>
+      <c r="I229">
+        <v>5</v>
+      </c>
+      <c r="J229" t="s">
+        <v>9</v>
+      </c>
+      <c r="K229" t="s">
+        <v>223</v>
+      </c>
+      <c r="L229" t="s">
+        <v>3</v>
+      </c>
+      <c r="M229" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N229">
+        <v>16.8</v>
+      </c>
+      <c r="O229">
+        <v>19</v>
+      </c>
+      <c r="P229">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>67</v>
+      </c>
+      <c r="D230" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E230" t="s">
+        <v>61</v>
+      </c>
+      <c r="F230" t="s">
+        <v>233</v>
+      </c>
+      <c r="G230">
+        <v>3</v>
+      </c>
+      <c r="H230" t="s">
+        <v>91</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>9</v>
+      </c>
+      <c r="K230" t="s">
+        <v>198</v>
+      </c>
+      <c r="L230" t="s">
+        <v>10</v>
+      </c>
+      <c r="M230" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N230">
+        <v>70.2</v>
+      </c>
+      <c r="O230">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="P230">
+        <v>71.800000000000011</v>
+      </c>
+    </row>
+    <row r="231" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>67</v>
+      </c>
+      <c r="D231" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E231" t="s">
+        <v>61</v>
+      </c>
+      <c r="F231" t="s">
+        <v>234</v>
+      </c>
+      <c r="G231">
+        <v>3</v>
+      </c>
+      <c r="H231" t="s">
+        <v>91</v>
+      </c>
+      <c r="I231">
+        <v>2</v>
+      </c>
+      <c r="J231" t="s">
+        <v>9</v>
+      </c>
+      <c r="K231" t="s">
+        <v>198</v>
+      </c>
+      <c r="L231" t="s">
+        <v>10</v>
+      </c>
+      <c r="M231" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N231">
+        <v>70</v>
+      </c>
+      <c r="O231">
+        <v>70.8</v>
+      </c>
+      <c r="P231">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="232" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
+        <v>67</v>
+      </c>
+      <c r="D232" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E232" t="s">
+        <v>61</v>
+      </c>
+      <c r="F232" t="s">
+        <v>235</v>
+      </c>
+      <c r="G232">
+        <v>3</v>
+      </c>
+      <c r="H232" t="s">
+        <v>91</v>
+      </c>
+      <c r="I232">
+        <v>3</v>
+      </c>
+      <c r="J232" t="s">
+        <v>9</v>
+      </c>
+      <c r="K232" t="s">
+        <v>198</v>
+      </c>
+      <c r="L232" t="s">
+        <v>10</v>
+      </c>
+      <c r="M232" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N232">
+        <v>69.8</v>
+      </c>
+      <c r="O232">
+        <v>70.3</v>
+      </c>
+      <c r="P232">
+        <v>70.05</v>
+      </c>
+    </row>
+    <row r="233" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
+        <v>67</v>
+      </c>
+      <c r="D233" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E233" t="s">
+        <v>61</v>
+      </c>
+      <c r="F233" t="s">
+        <v>236</v>
+      </c>
+      <c r="G233">
+        <v>3</v>
+      </c>
+      <c r="H233" t="s">
+        <v>91</v>
+      </c>
+      <c r="I233">
+        <v>4</v>
+      </c>
+      <c r="J233" t="s">
+        <v>9</v>
+      </c>
+      <c r="K233" t="s">
+        <v>198</v>
+      </c>
+      <c r="L233" t="s">
+        <v>10</v>
+      </c>
+      <c r="M233" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N233">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="O233">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="P233">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="234" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
+        <v>67</v>
+      </c>
+      <c r="D234" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E234" t="s">
+        <v>61</v>
+      </c>
+      <c r="F234" t="s">
+        <v>237</v>
+      </c>
+      <c r="G234">
+        <v>3</v>
+      </c>
+      <c r="H234" t="s">
+        <v>91</v>
+      </c>
+      <c r="I234">
+        <v>5</v>
+      </c>
+      <c r="J234" t="s">
+        <v>9</v>
+      </c>
+      <c r="K234" t="s">
+        <v>198</v>
+      </c>
+      <c r="L234" t="s">
+        <v>10</v>
+      </c>
+      <c r="M234" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N234">
+        <v>70.2</v>
+      </c>
+      <c r="O234">
+        <v>69.8</v>
+      </c>
+      <c r="P234">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="235" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
+        <v>67</v>
+      </c>
+      <c r="D235" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E235" t="s">
+        <v>61</v>
+      </c>
+      <c r="F235" t="s">
+        <v>238</v>
+      </c>
+      <c r="G235">
+        <v>3</v>
+      </c>
+      <c r="H235" t="s">
+        <v>91</v>
+      </c>
+      <c r="I235">
+        <v>6</v>
+      </c>
+      <c r="J235" t="s">
+        <v>9</v>
+      </c>
+      <c r="K235" t="s">
+        <v>198</v>
+      </c>
+      <c r="L235" t="s">
+        <v>10</v>
+      </c>
+      <c r="M235" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N235">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="O235">
+        <v>71.2</v>
+      </c>
+      <c r="P235">
+        <v>70.050000000000011</v>
+      </c>
+    </row>
+    <row r="236" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>67</v>
+      </c>
+      <c r="D236" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E236" t="s">
+        <v>61</v>
+      </c>
+      <c r="F236" t="s">
+        <v>239</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+      <c r="H236" t="s">
+        <v>91</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236" t="s">
+        <v>9</v>
+      </c>
+      <c r="K236" t="s">
+        <v>29</v>
+      </c>
+      <c r="L236" t="s">
+        <v>10</v>
+      </c>
+      <c r="M236" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N236">
+        <v>25.2</v>
+      </c>
+      <c r="O236">
+        <v>26.1</v>
+      </c>
+      <c r="P236">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="237" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>67</v>
+      </c>
+      <c r="D237" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E237" t="s">
+        <v>61</v>
+      </c>
+      <c r="F237" t="s">
+        <v>240</v>
+      </c>
+      <c r="G237">
+        <v>3</v>
+      </c>
+      <c r="H237" t="s">
+        <v>91</v>
+      </c>
+      <c r="I237">
+        <v>2</v>
+      </c>
+      <c r="J237" t="s">
+        <v>9</v>
+      </c>
+      <c r="K237" t="s">
+        <v>29</v>
+      </c>
+      <c r="L237" t="s">
+        <v>3</v>
+      </c>
+      <c r="M237" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N237">
+        <v>22</v>
+      </c>
+      <c r="O237">
+        <v>17</v>
+      </c>
+      <c r="P237">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="238" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
+        <v>67</v>
+      </c>
+      <c r="D238" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E238" t="s">
+        <v>61</v>
+      </c>
+      <c r="F238" t="s">
+        <v>241</v>
+      </c>
+      <c r="G238">
+        <v>3</v>
+      </c>
+      <c r="H238" t="s">
+        <v>91</v>
+      </c>
+      <c r="I238">
+        <v>3</v>
+      </c>
+      <c r="J238" t="s">
+        <v>9</v>
+      </c>
+      <c r="K238" t="s">
+        <v>29</v>
+      </c>
+      <c r="L238" t="s">
+        <v>3</v>
+      </c>
+      <c r="M238" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N238">
+        <v>21</v>
+      </c>
+      <c r="O238">
+        <v>20.5</v>
+      </c>
+      <c r="P238">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="239" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
+        <v>67</v>
+      </c>
+      <c r="D239" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E239" t="s">
+        <v>61</v>
+      </c>
+      <c r="F239" t="s">
+        <v>242</v>
+      </c>
+      <c r="G239">
+        <v>3</v>
+      </c>
+      <c r="H239" t="s">
+        <v>91</v>
+      </c>
+      <c r="I239">
+        <v>4</v>
+      </c>
+      <c r="J239" t="s">
+        <v>9</v>
+      </c>
+      <c r="K239" t="s">
+        <v>29</v>
+      </c>
+      <c r="L239" t="s">
+        <v>3</v>
+      </c>
+      <c r="M239" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N239">
+        <v>20.5</v>
+      </c>
+      <c r="O239">
+        <v>20.5</v>
+      </c>
+      <c r="P239">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="240" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
+        <v>67</v>
+      </c>
+      <c r="D240" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E240" t="s">
+        <v>61</v>
+      </c>
+      <c r="F240" t="s">
+        <v>243</v>
+      </c>
+      <c r="G240">
+        <v>3</v>
+      </c>
+      <c r="H240" t="s">
+        <v>91</v>
+      </c>
+      <c r="I240">
+        <v>5</v>
+      </c>
+      <c r="J240" t="s">
+        <v>9</v>
+      </c>
+      <c r="K240" t="s">
+        <v>29</v>
+      </c>
+      <c r="L240" t="s">
+        <v>3</v>
+      </c>
+      <c r="M240" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N240">
+        <v>22.5</v>
+      </c>
+      <c r="O240">
+        <v>19.5</v>
+      </c>
+      <c r="P240">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
+        <v>67</v>
+      </c>
+      <c r="D241" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E241" t="s">
+        <v>61</v>
+      </c>
+      <c r="F241" t="s">
+        <v>244</v>
+      </c>
+      <c r="G241">
+        <v>3</v>
+      </c>
+      <c r="H241" t="s">
+        <v>91</v>
+      </c>
+      <c r="I241">
+        <v>6</v>
+      </c>
+      <c r="J241" t="s">
+        <v>9</v>
+      </c>
+      <c r="K241" t="s">
+        <v>29</v>
+      </c>
+      <c r="L241" t="s">
+        <v>3</v>
+      </c>
+      <c r="M241" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N241">
+        <v>25</v>
+      </c>
+      <c r="O241">
+        <v>19.5</v>
+      </c>
+      <c r="P241">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="242" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
+        <v>67</v>
+      </c>
+      <c r="D242" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E242" t="s">
+        <v>61</v>
+      </c>
+      <c r="F242" t="s">
+        <v>245</v>
+      </c>
+      <c r="G242">
+        <v>3</v>
+      </c>
+      <c r="H242" t="s">
+        <v>91</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242" t="s">
+        <v>9</v>
+      </c>
+      <c r="K242" t="s">
+        <v>256</v>
+      </c>
+      <c r="L242" t="s">
+        <v>3</v>
+      </c>
+      <c r="M242" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N242">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="P242">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
+        <v>67</v>
+      </c>
+      <c r="D243" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E243" t="s">
+        <v>61</v>
+      </c>
+      <c r="F243" t="s">
+        <v>246</v>
+      </c>
+      <c r="G243">
+        <v>3</v>
+      </c>
+      <c r="H243" t="s">
+        <v>91</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243" t="s">
+        <v>9</v>
+      </c>
+      <c r="K243" t="s">
+        <v>256</v>
+      </c>
+      <c r="L243" t="s">
+        <v>3</v>
+      </c>
+      <c r="M243" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N243">
+        <v>9.5</v>
+      </c>
+      <c r="O243">
+        <v>12</v>
+      </c>
+      <c r="P243">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="244" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
+        <v>67</v>
+      </c>
+      <c r="D244" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E244" t="s">
+        <v>61</v>
+      </c>
+      <c r="F244" t="s">
+        <v>247</v>
+      </c>
+      <c r="G244">
+        <v>3</v>
+      </c>
+      <c r="H244" t="s">
+        <v>91</v>
+      </c>
+      <c r="I244">
+        <v>3</v>
+      </c>
+      <c r="J244" t="s">
+        <v>9</v>
+      </c>
+      <c r="K244" t="s">
+        <v>256</v>
+      </c>
+      <c r="L244" t="s">
+        <v>3</v>
+      </c>
+      <c r="M244" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N244">
+        <v>6</v>
+      </c>
+      <c r="O244">
+        <v>8.4</v>
+      </c>
+      <c r="P244">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="245" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
+        <v>67</v>
+      </c>
+      <c r="D245" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E245" t="s">
+        <v>61</v>
+      </c>
+      <c r="F245" t="s">
+        <v>248</v>
+      </c>
+      <c r="G245">
+        <v>3</v>
+      </c>
+      <c r="H245" t="s">
+        <v>91</v>
+      </c>
+      <c r="I245">
+        <v>4</v>
+      </c>
+      <c r="J245" t="s">
+        <v>9</v>
+      </c>
+      <c r="K245" t="s">
+        <v>256</v>
+      </c>
+      <c r="L245" t="s">
+        <v>3</v>
+      </c>
+      <c r="M245" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N245">
+        <v>16</v>
+      </c>
+      <c r="O245">
+        <v>14</v>
+      </c>
+      <c r="P245">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
+        <v>67</v>
+      </c>
+      <c r="D246" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E246" t="s">
+        <v>61</v>
+      </c>
+      <c r="F246" t="s">
+        <v>249</v>
+      </c>
+      <c r="G246">
+        <v>3</v>
+      </c>
+      <c r="H246" t="s">
+        <v>91</v>
+      </c>
+      <c r="I246">
+        <v>5</v>
+      </c>
+      <c r="J246" t="s">
+        <v>9</v>
+      </c>
+      <c r="K246" t="s">
+        <v>256</v>
+      </c>
+      <c r="L246" t="s">
+        <v>3</v>
+      </c>
+      <c r="M246" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N246">
+        <v>17.5</v>
+      </c>
+      <c r="O246">
+        <v>13</v>
+      </c>
+      <c r="P246">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="247" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
+        <v>67</v>
+      </c>
+      <c r="D247" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E247" t="s">
+        <v>61</v>
+      </c>
+      <c r="F247" t="s">
+        <v>250</v>
+      </c>
+      <c r="G247">
+        <v>3</v>
+      </c>
+      <c r="H247" t="s">
+        <v>42</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247" t="s">
+        <v>9</v>
+      </c>
+      <c r="K247" t="s">
+        <v>256</v>
+      </c>
+      <c r="L247" t="s">
+        <v>10</v>
+      </c>
+      <c r="M247" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N247">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="O247">
+        <v>48.3</v>
+      </c>
+      <c r="P247">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="248" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
+        <v>67</v>
+      </c>
+      <c r="D248" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E248" t="s">
+        <v>61</v>
+      </c>
+      <c r="F248" t="s">
+        <v>251</v>
+      </c>
+      <c r="G248">
+        <v>3</v>
+      </c>
+      <c r="H248" t="s">
+        <v>42</v>
+      </c>
+      <c r="I248">
+        <v>2</v>
+      </c>
+      <c r="J248" t="s">
+        <v>9</v>
+      </c>
+      <c r="K248" t="s">
+        <v>256</v>
+      </c>
+      <c r="L248" t="s">
+        <v>10</v>
+      </c>
+      <c r="M248" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N248">
+        <v>46.1</v>
+      </c>
+      <c r="O248">
+        <v>38.9</v>
+      </c>
+      <c r="P248">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="249" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>67</v>
+      </c>
+      <c r="D249" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E249" t="s">
+        <v>61</v>
+      </c>
+      <c r="F249" t="s">
+        <v>252</v>
+      </c>
+      <c r="G249">
+        <v>3</v>
+      </c>
+      <c r="H249" t="s">
+        <v>42</v>
+      </c>
+      <c r="I249">
+        <v>3</v>
+      </c>
+      <c r="J249" t="s">
+        <v>9</v>
+      </c>
+      <c r="K249" t="s">
+        <v>256</v>
+      </c>
+      <c r="L249" t="s">
+        <v>10</v>
+      </c>
+      <c r="M249" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N249">
+        <v>50.9</v>
+      </c>
+      <c r="O249">
+        <v>42.2</v>
+      </c>
+      <c r="P249">
+        <v>46.55</v>
+      </c>
+    </row>
+    <row r="250" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>67</v>
+      </c>
+      <c r="D250" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E250" t="s">
+        <v>61</v>
+      </c>
+      <c r="F250" t="s">
+        <v>253</v>
+      </c>
+      <c r="G250">
+        <v>3</v>
+      </c>
+      <c r="H250" t="s">
+        <v>42</v>
+      </c>
+      <c r="I250">
+        <v>4</v>
+      </c>
+      <c r="J250" t="s">
+        <v>9</v>
+      </c>
+      <c r="K250" t="s">
+        <v>256</v>
+      </c>
+      <c r="L250" t="s">
+        <v>10</v>
+      </c>
+      <c r="M250" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N250">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="O250">
+        <v>47.5</v>
+      </c>
+      <c r="P250">
+        <v>42.85</v>
+      </c>
+    </row>
+    <row r="251" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>67</v>
+      </c>
+      <c r="D251" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E251" t="s">
+        <v>61</v>
+      </c>
+      <c r="F251" t="s">
+        <v>254</v>
+      </c>
+      <c r="G251">
+        <v>3</v>
+      </c>
+      <c r="H251" t="s">
+        <v>42</v>
+      </c>
+      <c r="I251">
+        <v>5</v>
+      </c>
+      <c r="J251" t="s">
+        <v>9</v>
+      </c>
+      <c r="K251" t="s">
+        <v>256</v>
+      </c>
+      <c r="L251" t="s">
+        <v>10</v>
+      </c>
+      <c r="M251" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N251">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="O251">
+        <v>64.7</v>
+      </c>
+      <c r="P251">
+        <v>65.300000000000011</v>
+      </c>
+    </row>
+    <row r="252" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
+        <v>67</v>
+      </c>
+      <c r="D252" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E252" t="s">
+        <v>61</v>
+      </c>
+      <c r="F252" t="s">
+        <v>255</v>
+      </c>
+      <c r="G252">
+        <v>3</v>
+      </c>
+      <c r="H252" t="s">
+        <v>42</v>
+      </c>
+      <c r="I252">
+        <v>6</v>
+      </c>
+      <c r="J252" t="s">
+        <v>9</v>
+      </c>
+      <c r="K252" t="s">
+        <v>256</v>
+      </c>
+      <c r="L252" t="s">
+        <v>10</v>
+      </c>
+      <c r="M252" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N252">
+        <v>59.3</v>
+      </c>
+      <c r="O252">
+        <v>61</v>
+      </c>
+      <c r="P252">
+        <v>60.15</v>
+      </c>
+    </row>
+    <row r="253" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
+        <v>67</v>
+      </c>
+      <c r="D253" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E253" t="s">
+        <v>61</v>
+      </c>
+      <c r="F253" t="s">
+        <v>257</v>
+      </c>
+      <c r="G253">
+        <v>3</v>
+      </c>
+      <c r="H253" t="s">
+        <v>42</v>
+      </c>
+      <c r="I253">
+        <v>7</v>
+      </c>
+      <c r="J253" t="s">
+        <v>9</v>
+      </c>
+      <c r="K253" t="s">
+        <v>256</v>
+      </c>
+      <c r="L253" t="s">
+        <v>10</v>
+      </c>
+      <c r="M253" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N253">
+        <v>48.5</v>
+      </c>
+      <c r="O253">
+        <v>54.5</v>
+      </c>
+      <c r="P253">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="254" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
+        <v>67</v>
+      </c>
+      <c r="D254" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E254" t="s">
+        <v>61</v>
+      </c>
+      <c r="F254" t="s">
+        <v>258</v>
+      </c>
+      <c r="G254">
+        <v>3</v>
+      </c>
+      <c r="H254" t="s">
+        <v>42</v>
+      </c>
+      <c r="I254">
+        <v>8</v>
+      </c>
+      <c r="J254" t="s">
+        <v>9</v>
+      </c>
+      <c r="K254" t="s">
+        <v>256</v>
+      </c>
+      <c r="L254" t="s">
+        <v>10</v>
+      </c>
+      <c r="M254" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N254">
+        <v>59.9</v>
+      </c>
+      <c r="O254">
+        <v>60.4</v>
+      </c>
+      <c r="P254">
+        <v>60.15</v>
+      </c>
+    </row>
+    <row r="255" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
+        <v>67</v>
+      </c>
+      <c r="D255" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E255" t="s">
+        <v>61</v>
+      </c>
+      <c r="F255" t="s">
+        <v>259</v>
+      </c>
+      <c r="G255">
+        <v>3</v>
+      </c>
+      <c r="H255" t="s">
+        <v>42</v>
+      </c>
+      <c r="I255">
+        <v>9</v>
+      </c>
+      <c r="J255" t="s">
+        <v>9</v>
+      </c>
+      <c r="K255" t="s">
+        <v>256</v>
+      </c>
+      <c r="L255" t="s">
+        <v>10</v>
+      </c>
+      <c r="M255" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N255">
+        <v>57.1</v>
+      </c>
+      <c r="O255">
+        <v>54.4</v>
+      </c>
+      <c r="P255">
+        <v>55.75</v>
+      </c>
+    </row>
+    <row r="256" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
+        <v>67</v>
+      </c>
+      <c r="D256" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E256" t="s">
+        <v>61</v>
+      </c>
+      <c r="F256" t="s">
+        <v>260</v>
+      </c>
+      <c r="G256">
+        <v>3</v>
+      </c>
+      <c r="H256" t="s">
+        <v>42</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" t="s">
+        <v>119</v>
+      </c>
+      <c r="K256" t="s">
+        <v>29</v>
+      </c>
+      <c r="L256" t="s">
+        <v>10</v>
+      </c>
+      <c r="M256" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N256">
+        <v>52.2</v>
+      </c>
+      <c r="O256">
+        <v>53.7</v>
+      </c>
+      <c r="P256">
+        <v>52.95</v>
+      </c>
+    </row>
+    <row r="257" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>67</v>
+      </c>
+      <c r="D257" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E257" t="s">
+        <v>61</v>
+      </c>
+      <c r="F257" t="s">
+        <v>261</v>
+      </c>
+      <c r="G257">
+        <v>3</v>
+      </c>
+      <c r="H257" t="s">
+        <v>42</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+      <c r="J257" t="s">
+        <v>119</v>
+      </c>
+      <c r="K257" t="s">
+        <v>29</v>
+      </c>
+      <c r="L257" t="s">
+        <v>10</v>
+      </c>
+      <c r="M257" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N257">
+        <v>55.5</v>
+      </c>
+      <c r="O257">
+        <v>57.2</v>
+      </c>
+      <c r="P257">
+        <v>56.35</v>
+      </c>
+    </row>
+    <row r="258" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>67</v>
+      </c>
+      <c r="D258" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E258" t="s">
+        <v>61</v>
+      </c>
+      <c r="F258" t="s">
+        <v>262</v>
+      </c>
+      <c r="G258">
+        <v>3</v>
+      </c>
+      <c r="H258" t="s">
+        <v>42</v>
+      </c>
+      <c r="I258">
+        <v>3</v>
+      </c>
+      <c r="J258" t="s">
+        <v>119</v>
+      </c>
+      <c r="K258" t="s">
+        <v>29</v>
+      </c>
+      <c r="L258" t="s">
+        <v>10</v>
+      </c>
+      <c r="M258" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N258">
+        <v>58.7</v>
+      </c>
+      <c r="O258">
+        <v>65</v>
+      </c>
+      <c r="P258">
+        <v>61.85</v>
+      </c>
+    </row>
+    <row r="259" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>67</v>
+      </c>
+      <c r="D259" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E259" t="s">
+        <v>61</v>
+      </c>
+      <c r="F259" t="s">
+        <v>263</v>
+      </c>
+      <c r="G259">
+        <v>3</v>
+      </c>
+      <c r="H259" t="s">
+        <v>42</v>
+      </c>
+      <c r="I259">
+        <v>4</v>
+      </c>
+      <c r="J259" t="s">
+        <v>119</v>
+      </c>
+      <c r="K259" t="s">
+        <v>29</v>
+      </c>
+      <c r="L259" t="s">
+        <v>10</v>
+      </c>
+      <c r="M259" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N259">
+        <v>58.8</v>
+      </c>
+      <c r="O259">
+        <v>59.3</v>
+      </c>
+      <c r="P259">
+        <v>59.05</v>
+      </c>
+    </row>
+    <row r="260" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>67</v>
+      </c>
+      <c r="D260" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E260" t="s">
+        <v>61</v>
+      </c>
+      <c r="F260" t="s">
+        <v>264</v>
+      </c>
+      <c r="G260">
+        <v>3</v>
+      </c>
+      <c r="H260" t="s">
+        <v>42</v>
+      </c>
+      <c r="I260">
+        <v>5</v>
+      </c>
+      <c r="J260" t="s">
+        <v>119</v>
+      </c>
+      <c r="K260" t="s">
+        <v>29</v>
+      </c>
+      <c r="L260" t="s">
+        <v>10</v>
+      </c>
+      <c r="M260" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N260">
+        <v>62</v>
+      </c>
+      <c r="O260">
+        <v>60.1</v>
+      </c>
+      <c r="P260">
+        <v>61.05</v>
+      </c>
+    </row>
+    <row r="261" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>67</v>
+      </c>
+      <c r="D261" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E261" t="s">
+        <v>61</v>
+      </c>
+      <c r="F261" t="s">
+        <v>265</v>
+      </c>
+      <c r="G261">
+        <v>3</v>
+      </c>
+      <c r="H261" t="s">
+        <v>42</v>
+      </c>
+      <c r="I261">
+        <v>6</v>
+      </c>
+      <c r="J261" t="s">
+        <v>119</v>
+      </c>
+      <c r="K261" t="s">
+        <v>29</v>
+      </c>
+      <c r="L261" t="s">
+        <v>10</v>
+      </c>
+      <c r="M261" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N261">
+        <v>56.7</v>
+      </c>
+      <c r="O261">
+        <v>54.4</v>
+      </c>
+      <c r="P261">
+        <v>55.55</v>
+      </c>
+    </row>
+    <row r="262" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>67</v>
+      </c>
+      <c r="D262" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E262" t="s">
+        <v>61</v>
+      </c>
+      <c r="F262" t="s">
+        <v>266</v>
+      </c>
+      <c r="G262">
+        <v>3</v>
+      </c>
+      <c r="H262" t="s">
+        <v>91</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>119</v>
+      </c>
+      <c r="K262" t="s">
+        <v>29</v>
+      </c>
+      <c r="L262" t="s">
+        <v>10</v>
+      </c>
+      <c r="M262" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N262">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="O262">
+        <v>36.5</v>
+      </c>
+      <c r="P262">
+        <v>35.15</v>
+      </c>
+    </row>
+    <row r="263" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>67</v>
+      </c>
+      <c r="D263" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E263" t="s">
+        <v>61</v>
+      </c>
+      <c r="F263" t="s">
+        <v>267</v>
+      </c>
+      <c r="G263">
+        <v>3</v>
+      </c>
+      <c r="H263" t="s">
+        <v>91</v>
+      </c>
+      <c r="I263">
+        <v>2</v>
+      </c>
+      <c r="J263" t="s">
+        <v>119</v>
+      </c>
+      <c r="K263" t="s">
+        <v>29</v>
+      </c>
+      <c r="L263" t="s">
+        <v>3</v>
+      </c>
+      <c r="M263" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N263">
+        <v>20.5</v>
+      </c>
+      <c r="O263">
+        <v>21</v>
+      </c>
+      <c r="P263">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="264" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>67</v>
+      </c>
+      <c r="D264" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E264" t="s">
+        <v>61</v>
+      </c>
+      <c r="F264" t="s">
+        <v>268</v>
+      </c>
+      <c r="G264">
+        <v>3</v>
+      </c>
+      <c r="H264" t="s">
+        <v>91</v>
+      </c>
+      <c r="I264">
+        <v>3</v>
+      </c>
+      <c r="J264" t="s">
+        <v>119</v>
+      </c>
+      <c r="K264" t="s">
+        <v>29</v>
+      </c>
+      <c r="L264" t="s">
+        <v>3</v>
+      </c>
+      <c r="M264" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N264">
+        <v>23.5</v>
+      </c>
+      <c r="O264">
+        <v>22</v>
+      </c>
+      <c r="P264">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="265" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
+        <v>67</v>
+      </c>
+      <c r="D265" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E265" t="s">
+        <v>61</v>
+      </c>
+      <c r="F265" t="s">
+        <v>269</v>
+      </c>
+      <c r="G265">
+        <v>3</v>
+      </c>
+      <c r="H265" t="s">
+        <v>91</v>
+      </c>
+      <c r="I265">
+        <v>4</v>
+      </c>
+      <c r="J265" t="s">
+        <v>119</v>
+      </c>
+      <c r="K265" t="s">
+        <v>29</v>
+      </c>
+      <c r="L265" t="s">
+        <v>3</v>
+      </c>
+      <c r="M265" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N265">
+        <v>30.7</v>
+      </c>
+      <c r="O265">
+        <v>28.6</v>
+      </c>
+      <c r="P265">
+        <v>29.65</v>
+      </c>
+    </row>
+    <row r="266" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
+        <v>67</v>
+      </c>
+      <c r="D266" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E266" t="s">
+        <v>61</v>
+      </c>
+      <c r="F266" t="s">
+        <v>270</v>
+      </c>
+      <c r="G266">
+        <v>3</v>
+      </c>
+      <c r="H266" t="s">
+        <v>91</v>
+      </c>
+      <c r="I266">
+        <v>5</v>
+      </c>
+      <c r="J266" t="s">
+        <v>119</v>
+      </c>
+      <c r="K266" t="s">
+        <v>29</v>
+      </c>
+      <c r="L266" t="s">
+        <v>3</v>
+      </c>
+      <c r="M266" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N266">
+        <v>31.1</v>
+      </c>
+      <c r="O266">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="P266">
+        <v>32.900000000000006</v>
+      </c>
+    </row>
+    <row r="267" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>67</v>
+      </c>
+      <c r="D267" s="1">
+        <v>43634</v>
+      </c>
+      <c r="E267" t="s">
+        <v>61</v>
+      </c>
+      <c r="F267" t="s">
+        <v>271</v>
+      </c>
+      <c r="G267">
+        <v>3</v>
+      </c>
+      <c r="H267" t="s">
+        <v>91</v>
+      </c>
+      <c r="I267">
+        <v>6</v>
+      </c>
+      <c r="J267" t="s">
+        <v>119</v>
+      </c>
+      <c r="K267" t="s">
+        <v>29</v>
+      </c>
+      <c r="L267" t="s">
+        <v>3</v>
+      </c>
+      <c r="M267" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N267">
+        <v>29.6</v>
+      </c>
+      <c r="O267">
+        <v>29.5</v>
+      </c>
+      <c r="P267">
+        <v>29.55</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P196" xr:uid="{9D0DA90A-6ADF-4546-9FD5-3306B2ABDFA9}"/>
+  <autoFilter ref="A1:P267" xr:uid="{9D0DA90A-6ADF-4546-9FD5-3306B2ABDFA9}">
+    <filterColumn colId="3">
+      <filters>
+        <dateGroupItem year="2019" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10545,7 +13902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
